--- a/biology/Zoologie/Eoprotelops/Eoprotelops.xlsx
+++ b/biology/Zoologie/Eoprotelops/Eoprotelops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoprotelops vireti
 Eoprotelops est un genre éteint de poissons à nageoires rayonnées marins qui vivait lors du Jurassique supérieur.
-Son seul fossile connu a été mis au jour sur le site paléontologique de Cerin, dans le massif du Jura en France, à Cerin, un hameau de la commune de Marchamp dans l'Ain[1].
-Il est daté du milieu du  Kimméridgien supérieur (Jurassique supérieur), de la biozone à Pseudomutabilis, dont l'équivalent dans le domaine méditerranéen est la biozone à Eudoxus, datée d'environ 153 Ma (millions d'années)[2],[3].
-L'espèce unique a été nommée Eoprotelops vireti par Pierre de Saint-Seine en 1949, en hommage à Jean Viret[1],[4].
+Son seul fossile connu a été mis au jour sur le site paléontologique de Cerin, dans le massif du Jura en France, à Cerin, un hameau de la commune de Marchamp dans l'Ain.
+Il est daté du milieu du  Kimméridgien supérieur (Jurassique supérieur), de la biozone à Pseudomutabilis, dont l'équivalent dans le domaine méditerranéen est la biozone à Eudoxus, datée d'environ 153 Ma (millions d'années),.
+L'espèce unique a été nommée Eoprotelops vireti par Pierre de Saint-Seine en 1949, en hommage à Jean Viret,.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le squelette est presque complet, il ne manque qu'une partie de l’extrémité avant du crâne. C'est un poisson élancé avec une grosse tête dont la longueur totale est estimée à une quinzaine de centimètres. Sa hauteur est de 2,6 cm.
-Il possède 52 vertèbres et sa nageoire dorsale possède 16 radiales[1].
+Il possède 52 vertèbres et sa nageoire dorsale possède 16 radiales.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eoprotelops vivait dans des lagunes tropicales parmi une faune et une flore abondantes d'environnement marin chaud peu profond à forte biodiversité où se sont sédimentés également des plantes et des animaux provenant des terres émergées toutes proches : algues, fougères, conifères, mollusques, oursins, étoiles de mer, crustacés, reptiles, poissons, ainsi que des traces de tortues et de reptiles[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eoprotelops vivait dans des lagunes tropicales parmi une faune et une flore abondantes d'environnement marin chaud peu profond à forte biodiversité où se sont sédimentés également des plantes et des animaux provenant des terres émergées toutes proches : algues, fougères, conifères, mollusques, oursins, étoiles de mer, crustacés, reptiles, poissons, ainsi que des traces de tortues et de reptiles.
 </t>
         </is>
       </c>
